--- a/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E47E67-64A0-2E46-BEF8-27F998EC0775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625A697-D649-464A-90BF-9CE19159029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="224">
   <si>
     <t>table_name</t>
   </si>
@@ -691,10 +691,10 @@
     <t>join</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Only transform tasks with ACTIVE and INACTIVE statuses</t>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Only transform tasks with ACTIVE and INACTIVE statuses, both of which get a value of 'Not started' for this field</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1354,13 +1354,9 @@
       <c r="E6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="7"/>
       <c r="P6" s="7" t="s">
         <v>21</v>
       </c>
@@ -3034,7 +3030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="15" t="s">
         <v>57</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="15" t="s">
         <v>58</v>
       </c>
@@ -3076,7 +3072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="15" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +3086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="15" t="s">
         <v>61</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
@@ -3118,7 +3114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="15" t="s">
         <v>63</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="15" t="s">
         <v>64</v>
       </c>
@@ -3146,7 +3142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="15" t="s">
         <v>66</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
@@ -3174,7 +3170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
@@ -3188,7 +3184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -3202,7 +3198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="15" t="s">
         <v>71</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
@@ -3230,7 +3226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="15" t="s">
         <v>74</v>
       </c>
@@ -3258,7 +3254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="15" t="s">
         <v>77</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="15" t="s">
         <v>78</v>
       </c>
@@ -3300,7 +3296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="15" t="s">
         <v>79</v>
       </c>
@@ -3314,7 +3310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="15" t="s">
         <v>80</v>
       </c>
@@ -3328,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -3342,7 +3338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="15" t="s">
         <v>83</v>
       </c>
@@ -3356,7 +3352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="15" t="s">
         <v>85</v>
       </c>
@@ -3370,7 +3366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="15" t="s">
         <v>87</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="15" t="s">
         <v>88</v>
       </c>
@@ -3398,7 +3394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="15" t="s">
         <v>89</v>
       </c>
@@ -3412,7 +3408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="15" t="s">
         <v>91</v>
       </c>
@@ -3426,7 +3422,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="15" t="s">
         <v>93</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="15" t="s">
         <v>94</v>
       </c>
@@ -3454,7 +3450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="15" t="s">
         <v>95</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="15" t="s">
         <v>96</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" s="15" t="s">
         <v>98</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="15" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="15" t="s">
         <v>100</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="15" t="s">
         <v>103</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="15" t="s">
         <v>104</v>
       </c>
@@ -3566,7 +3562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="15" t="s">
         <v>105</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="15" t="s">
         <v>106</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="15" t="s">
         <v>107</v>
       </c>
@@ -3608,7 +3604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="15" t="s">
         <v>108</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="15" t="s">
         <v>110</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="15" t="s">
         <v>111</v>
       </c>
@@ -3650,7 +3646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="15" t="s">
         <v>112</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="15" t="s">
         <v>113</v>
       </c>
@@ -3678,7 +3674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="15" t="s">
         <v>114</v>
       </c>
@@ -3692,7 +3688,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="15" t="s">
         <v>116</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="15" t="s">
         <v>117</v>
       </c>
@@ -3720,7 +3716,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="15" t="s">
         <v>118</v>
       </c>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625A697-D649-464A-90BF-9CE19159029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F00D23-073E-AF4E-AD08-C89EB2157A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="224">
   <si>
     <t>table_name</t>
   </si>
@@ -691,10 +691,10 @@
     <t>join</t>
   </si>
   <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>Only transform tasks with ACTIVE and INACTIVE statuses, both of which get a value of 'Not started' for this field</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Only transform tasks with ACTIVE and INACTIVE statuses, both of which get a value of 'Not started' for this field (set in the tasks.py transform)</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -862,6 +862,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1125,6 +1128,9 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" t="s">
         <v>218</v>
       </c>
@@ -1158,9 +1164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1354,9 +1360,13 @@
       <c r="E6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
         <v>222</v>
       </c>
+      <c r="M6" s="7"/>
       <c r="P6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1577,26 +1587,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="20" customFormat="1" ht="15">
-      <c r="A15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="19" t="s">
+    <row r="15" spans="1:26" s="24" customFormat="1" ht="15">
+      <c r="A15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="19" t="b">
+      <c r="E15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="25" t="s">
         <v>28</v>
       </c>
     </row>
